--- a/gap_result_0_N.xlsx
+++ b/gap_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002136210968023897</v>
+        <v>-0.0004023648729643975</v>
       </c>
       <c r="D2">
-        <v>0.9808274768572889</v>
+        <v>0.9655620461712294</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0002924272397711678</v>
+        <v>-0.0004868265046308838</v>
       </c>
       <c r="D3">
-        <v>0.9911245096623438</v>
+        <v>0.9859069896265815</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01197134274544018</v>
+        <v>-0.04283463879499519</v>
       </c>
       <c r="D4">
-        <v>0.4634191118153961</v>
+        <v>0.01240555049035182</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.03155488126003778</v>
+        <v>-0.03410117432458316</v>
       </c>
       <c r="D5">
-        <v>0.04634997923800139</v>
+        <v>0.04072498806285896</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.009521737164373502</v>
+        <v>0.0001490581379592678</v>
       </c>
       <c r="D6">
-        <v>0.4729631046363724</v>
+        <v>0.9914460590630503</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gap_result_0_N.xlsx
+++ b/gap_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004023648729643975</v>
+        <v>-0.0002815539282736701</v>
       </c>
       <c r="D2">
-        <v>0.9655620461712294</v>
+        <v>0.9754626789379602</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0004868265046308838</v>
+        <v>-0.0003533817895148839</v>
       </c>
       <c r="D3">
-        <v>0.9859069896265815</v>
+        <v>0.9888444122950705</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04283463879499519</v>
+        <v>-0.04006776423569942</v>
       </c>
       <c r="D4">
-        <v>0.01240555049035182</v>
+        <v>0.01609676031709574</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03410117432458316</v>
+        <v>-0.03788750391520824</v>
       </c>
       <c r="D5">
-        <v>0.04072498806285896</v>
+        <v>0.01858365686774843</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0001490581379592678</v>
+        <v>0.005047533303734031</v>
       </c>
       <c r="D6">
-        <v>0.9914460590630503</v>
+        <v>0.704595225720805</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_N.xlsx
+++ b/gap_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002815539282736701</v>
+        <v>-0.0004021224755939995</v>
       </c>
       <c r="D2">
-        <v>0.9754626789379602</v>
+        <v>0.9655804507965865</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003533817895148839</v>
+        <v>-0.0002875021814484023</v>
       </c>
       <c r="D3">
-        <v>0.9888444122950705</v>
+        <v>0.9916763303054086</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04006776423569942</v>
+        <v>-0.04283627776942286</v>
       </c>
       <c r="D4">
-        <v>0.01609676031709574</v>
+        <v>0.01239630595784336</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03788750391520824</v>
+        <v>-0.03410749370211533</v>
       </c>
       <c r="D5">
-        <v>0.01858365686774843</v>
+        <v>0.04067422447366084</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.005047533303734031</v>
+        <v>0.0001455781761756422</v>
       </c>
       <c r="D6">
-        <v>0.704595225720805</v>
+        <v>0.9916451892103227</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_N.xlsx
+++ b/gap_result_0_N.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004021224755939995</v>
+        <v>-0.0009538832518320856</v>
       </c>
       <c r="D2">
-        <v>0.9655804507965865</v>
+        <v>0.9185404991545596</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0002875021814484023</v>
+        <v>-0.0007691453346894094</v>
       </c>
       <c r="D3">
-        <v>0.9916763303054086</v>
+        <v>0.9777537832062018</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04283627776942286</v>
+        <v>-0.04290423018226938</v>
       </c>
       <c r="D4">
-        <v>0.01239630595784336</v>
+        <v>0.01233398347505232</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03410749370211533</v>
+        <v>-0.03414787296664475</v>
       </c>
       <c r="D5">
-        <v>0.04067422447366084</v>
+        <v>0.04061126699428542</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0001455781761756422</v>
+        <v>0.0001222417423295038</v>
       </c>
       <c r="D6">
-        <v>0.9916451892103227</v>
+        <v>0.9929905365355516</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_N.xlsx
+++ b/gap_result_0_N.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
